--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,47 +421,70 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Surname</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cellphone Number</t>
-        </is>
-      </c>
-    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>cebile</t>
+          <t>Thabo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mcnina</t>
+          <t>Mazibuko</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>mncina@gmail.com</t>
+          <t>email1@gmaol.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0875487899</t>
+          <t>0748596859</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thabo</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mazibuko</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>email@gm</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>jj</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Thabo</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mazibuko</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>email@gm</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>jj</t>
         </is>
       </c>
     </row>
